--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>黄健超</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
   </si>
 </sst>
 </file>
@@ -386,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -413,8 +416,11 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -433,8 +439,11 @@
       <c r="F2">
         <v>10175</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -453,8 +462,11 @@
       <c r="F3">
         <v>11490</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>17142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -473,8 +485,11 @@
       <c r="F4">
         <v>6850</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -493,8 +508,11 @@
       <c r="F5">
         <v>7870</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -513,8 +531,11 @@
       <c r="F6">
         <v>10422</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>11972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -533,8 +554,11 @@
       <c r="F7">
         <v>9486</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -553,8 +577,11 @@
       <c r="F8">
         <v>10175</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -573,8 +600,11 @@
       <c r="F9">
         <v>7540</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -592,6 +622,9 @@
       </c>
       <c r="F10">
         <v>10225</v>
+      </c>
+      <c r="G10">
+        <v>7854</v>
       </c>
     </row>
   </sheetData>

--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pu/Documents/chartjs/node_modules/chart.js/samples/charts/bar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pu/Documents/chartjs/hiwalk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>黄健超</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>星期六</t>
+  </si>
+  <si>
+    <t>星期天</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -419,8 +422,11 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +448,11 @@
       <c r="G2">
         <v>8089</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>19832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -465,8 +474,11 @@
       <c r="G3">
         <v>17142</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>14244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -488,8 +500,11 @@
       <c r="G4">
         <v>10665</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>12272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -511,8 +526,11 @@
       <c r="G5">
         <v>8719</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -534,8 +552,11 @@
       <c r="G6">
         <v>11972</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>10292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -557,8 +578,11 @@
       <c r="G7">
         <v>10302</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -580,8 +604,11 @@
       <c r="G8">
         <v>10110</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -603,8 +630,11 @@
       <c r="G9">
         <v>4387</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -625,6 +655,9 @@
       </c>
       <c r="G10">
         <v>7854</v>
+      </c>
+      <c r="H10">
+        <v>3501</v>
       </c>
     </row>
   </sheetData>

--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>黄健超</t>
   </si>
@@ -44,40 +44,25 @@
     <t>星期一</t>
   </si>
   <si>
+    <t>袁露露</t>
+  </si>
+  <si>
+    <t>王勇博</t>
+  </si>
+  <si>
+    <t>张甜谨</t>
+  </si>
+  <si>
+    <t>张术</t>
+  </si>
+  <si>
+    <t>蒲勇飞</t>
+  </si>
+  <si>
+    <t>朱丽飞</t>
+  </si>
+  <si>
     <t>星期二</t>
-  </si>
-  <si>
-    <t>袁露露</t>
-  </si>
-  <si>
-    <t>王勇博</t>
-  </si>
-  <si>
-    <t>张甜谨</t>
-  </si>
-  <si>
-    <t>张术</t>
-  </si>
-  <si>
-    <t>蒲勇飞</t>
-  </si>
-  <si>
-    <t>朱丽飞</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期天</t>
   </si>
 </sst>
 </file>
@@ -392,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -408,256 +393,106 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13936</v>
+        <v>16241</v>
       </c>
       <c r="C2">
-        <v>10505</v>
-      </c>
-      <c r="D2">
-        <v>11520</v>
-      </c>
-      <c r="E2">
-        <v>14151</v>
-      </c>
-      <c r="F2">
-        <v>10175</v>
-      </c>
-      <c r="G2">
-        <v>8089</v>
-      </c>
-      <c r="H2">
-        <v>19832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15806</v>
+        <v>16351</v>
       </c>
       <c r="C3">
-        <v>16878</v>
-      </c>
-      <c r="D3">
-        <v>14415</v>
-      </c>
-      <c r="E3">
-        <v>15913</v>
-      </c>
-      <c r="F3">
-        <v>11490</v>
-      </c>
-      <c r="G3">
-        <v>17142</v>
-      </c>
-      <c r="H3">
-        <v>14244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11903</v>
+        <v>12993</v>
       </c>
       <c r="C4">
-        <v>10675</v>
-      </c>
-      <c r="D4">
-        <v>13070</v>
-      </c>
-      <c r="E4">
-        <v>9882</v>
-      </c>
-      <c r="F4">
-        <v>6850</v>
-      </c>
-      <c r="G4">
-        <v>10665</v>
-      </c>
-      <c r="H4">
-        <v>12272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10057</v>
+      </c>
+      <c r="C5">
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>15325</v>
+      </c>
+      <c r="C6">
+        <v>13392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>11864</v>
-      </c>
-      <c r="C5">
-        <v>10525</v>
-      </c>
-      <c r="D5">
-        <v>12496</v>
-      </c>
-      <c r="E5">
-        <v>15555</v>
-      </c>
-      <c r="F5">
-        <v>7870</v>
-      </c>
-      <c r="G5">
-        <v>8719</v>
-      </c>
-      <c r="H5">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>13132</v>
-      </c>
-      <c r="C6">
-        <v>16034</v>
-      </c>
-      <c r="D6">
-        <v>9865</v>
-      </c>
-      <c r="E6">
-        <v>10078</v>
-      </c>
-      <c r="F6">
-        <v>10422</v>
-      </c>
-      <c r="G6">
-        <v>11972</v>
-      </c>
-      <c r="H6">
-        <v>10292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>12242</v>
+      </c>
+      <c r="C7">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>9223</v>
-      </c>
-      <c r="C7">
-        <v>10018</v>
-      </c>
-      <c r="D7">
-        <v>10090</v>
-      </c>
-      <c r="E7">
-        <v>10003</v>
-      </c>
-      <c r="F7">
-        <v>9486</v>
-      </c>
-      <c r="G7">
-        <v>10302</v>
-      </c>
-      <c r="H7">
-        <v>10194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>10784</v>
+      </c>
+      <c r="C8">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>8234</v>
-      </c>
-      <c r="C8">
-        <v>10634</v>
-      </c>
-      <c r="D8">
-        <v>10107</v>
-      </c>
-      <c r="E8">
-        <v>10777</v>
-      </c>
-      <c r="F8">
-        <v>10175</v>
-      </c>
-      <c r="G8">
-        <v>10110</v>
-      </c>
-      <c r="H8">
-        <v>10146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>10079</v>
+      </c>
+      <c r="C9">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>10012</v>
-      </c>
-      <c r="C9">
-        <v>10347</v>
-      </c>
-      <c r="D9">
-        <v>6900</v>
-      </c>
-      <c r="E9">
-        <v>10281</v>
-      </c>
-      <c r="F9">
-        <v>7540</v>
-      </c>
-      <c r="G9">
-        <v>4387</v>
-      </c>
-      <c r="H9">
-        <v>4993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
       <c r="B10">
-        <v>10263</v>
+        <v>8260</v>
       </c>
       <c r="C10">
-        <v>9021</v>
-      </c>
-      <c r="D10">
-        <v>10292</v>
-      </c>
-      <c r="E10">
-        <v>10119</v>
-      </c>
-      <c r="F10">
-        <v>10225</v>
-      </c>
-      <c r="G10">
-        <v>7854</v>
-      </c>
-      <c r="H10">
-        <v>3501</v>
+        <v>7824</v>
       </c>
     </row>
   </sheetData>

--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>黄健超</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期天</t>
   </si>
 </sst>
 </file>
@@ -377,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -395,8 +410,23 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -406,8 +436,23 @@
       <c r="C2">
         <v>13983</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>9908</v>
+      </c>
+      <c r="E2">
+        <v>10360</v>
+      </c>
+      <c r="F2">
+        <v>10182</v>
+      </c>
+      <c r="G2">
+        <v>2820</v>
+      </c>
+      <c r="H2">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,8 +462,23 @@
       <c r="C3">
         <v>13734</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>12125</v>
+      </c>
+      <c r="E3">
+        <v>18489</v>
+      </c>
+      <c r="F3">
+        <v>9701</v>
+      </c>
+      <c r="G3">
+        <v>9161</v>
+      </c>
+      <c r="H3">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -428,8 +488,23 @@
       <c r="C4">
         <v>10101</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>7070</v>
+      </c>
+      <c r="E4">
+        <v>10624</v>
+      </c>
+      <c r="F4">
+        <v>10686</v>
+      </c>
+      <c r="G4">
+        <v>16693</v>
+      </c>
+      <c r="H4">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -439,8 +514,23 @@
       <c r="C5">
         <v>11220</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>12798</v>
+      </c>
+      <c r="E5">
+        <v>9274</v>
+      </c>
+      <c r="F5">
+        <v>12242</v>
+      </c>
+      <c r="G5">
+        <v>9495</v>
+      </c>
+      <c r="H5">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -450,8 +540,23 @@
       <c r="C6">
         <v>13392</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>13934</v>
+      </c>
+      <c r="E6">
+        <v>10964</v>
+      </c>
+      <c r="F6">
+        <v>11130</v>
+      </c>
+      <c r="G6">
+        <v>10805</v>
+      </c>
+      <c r="H6">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -461,8 +566,23 @@
       <c r="C7">
         <v>10016</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>8074</v>
+      </c>
+      <c r="E7">
+        <v>12644</v>
+      </c>
+      <c r="F7">
+        <v>8957</v>
+      </c>
+      <c r="G7">
+        <v>10773</v>
+      </c>
+      <c r="H7">
+        <v>10964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -472,8 +592,23 @@
       <c r="C8">
         <v>10607</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>5246</v>
+      </c>
+      <c r="E8">
+        <v>10053</v>
+      </c>
+      <c r="F8">
+        <v>10108</v>
+      </c>
+      <c r="G8">
+        <v>178</v>
+      </c>
+      <c r="H8">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -483,8 +618,23 @@
       <c r="C9">
         <v>7811</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>9057</v>
+      </c>
+      <c r="E9">
+        <v>8493</v>
+      </c>
+      <c r="F9">
+        <v>5932</v>
+      </c>
+      <c r="G9">
+        <v>5877</v>
+      </c>
+      <c r="H9">
+        <v>11086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -493,6 +643,21 @@
       </c>
       <c r="C10">
         <v>7824</v>
+      </c>
+      <c r="D10">
+        <v>9751</v>
+      </c>
+      <c r="E10">
+        <v>10364</v>
+      </c>
+      <c r="F10">
+        <v>10027</v>
+      </c>
+      <c r="G10">
+        <v>10637</v>
+      </c>
+      <c r="H10">
+        <v>11248</v>
       </c>
     </row>
   </sheetData>

--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>黄健超</t>
   </si>
@@ -60,24 +60,6 @@
   </si>
   <si>
     <t>朱丽飞</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>星期四</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>星期天</t>
   </si>
 </sst>
 </file>
@@ -392,272 +374,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16241</v>
-      </c>
-      <c r="C2">
-        <v>13983</v>
-      </c>
-      <c r="D2">
-        <v>9908</v>
-      </c>
-      <c r="E2">
-        <v>10360</v>
-      </c>
-      <c r="F2">
-        <v>10182</v>
-      </c>
-      <c r="G2">
-        <v>2820</v>
-      </c>
-      <c r="H2">
-        <v>8278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16351</v>
-      </c>
-      <c r="C3">
-        <v>13734</v>
-      </c>
-      <c r="D3">
-        <v>12125</v>
-      </c>
-      <c r="E3">
-        <v>18489</v>
-      </c>
-      <c r="F3">
-        <v>9701</v>
-      </c>
-      <c r="G3">
-        <v>9161</v>
-      </c>
-      <c r="H3">
-        <v>12346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12993</v>
-      </c>
-      <c r="C4">
-        <v>10101</v>
-      </c>
-      <c r="D4">
-        <v>7070</v>
-      </c>
-      <c r="E4">
-        <v>10624</v>
-      </c>
-      <c r="F4">
-        <v>10686</v>
-      </c>
-      <c r="G4">
-        <v>16693</v>
-      </c>
-      <c r="H4">
-        <v>11030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10057</v>
-      </c>
-      <c r="C5">
-        <v>11220</v>
-      </c>
-      <c r="D5">
-        <v>12798</v>
-      </c>
-      <c r="E5">
-        <v>9274</v>
-      </c>
-      <c r="F5">
-        <v>12242</v>
-      </c>
-      <c r="G5">
-        <v>9495</v>
-      </c>
-      <c r="H5">
-        <v>5521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>15325</v>
-      </c>
-      <c r="C6">
-        <v>13392</v>
-      </c>
-      <c r="D6">
-        <v>13934</v>
-      </c>
-      <c r="E6">
-        <v>10964</v>
-      </c>
-      <c r="F6">
-        <v>11130</v>
-      </c>
-      <c r="G6">
-        <v>10805</v>
-      </c>
-      <c r="H6">
-        <v>6623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12242</v>
-      </c>
-      <c r="C7">
-        <v>10016</v>
-      </c>
-      <c r="D7">
-        <v>8074</v>
-      </c>
-      <c r="E7">
-        <v>12644</v>
-      </c>
-      <c r="F7">
-        <v>8957</v>
-      </c>
-      <c r="G7">
-        <v>10773</v>
-      </c>
-      <c r="H7">
-        <v>10964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10784</v>
-      </c>
-      <c r="C8">
-        <v>10607</v>
-      </c>
-      <c r="D8">
-        <v>5246</v>
-      </c>
-      <c r="E8">
-        <v>10053</v>
-      </c>
-      <c r="F8">
-        <v>10108</v>
-      </c>
-      <c r="G8">
-        <v>178</v>
-      </c>
-      <c r="H8">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10079</v>
-      </c>
-      <c r="C9">
-        <v>7811</v>
-      </c>
-      <c r="D9">
-        <v>9057</v>
-      </c>
-      <c r="E9">
-        <v>8493</v>
-      </c>
-      <c r="F9">
-        <v>5932</v>
-      </c>
-      <c r="G9">
-        <v>5877</v>
-      </c>
-      <c r="H9">
-        <v>11086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8260</v>
-      </c>
-      <c r="C10">
-        <v>7824</v>
-      </c>
-      <c r="D10">
-        <v>9751</v>
-      </c>
-      <c r="E10">
-        <v>10364</v>
-      </c>
-      <c r="F10">
-        <v>10027</v>
-      </c>
-      <c r="G10">
-        <v>10637</v>
-      </c>
-      <c r="H10">
-        <v>11248</v>
+        <v>10224</v>
       </c>
     </row>
   </sheetData>

--- a/hiwalk.xlsx
+++ b/hiwalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>黄健超</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>朱丽飞</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期天</t>
   </si>
 </sst>
 </file>
@@ -374,92 +392,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>10918</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>12286</v>
+      </c>
+      <c r="D2">
+        <v>16817</v>
+      </c>
+      <c r="E2">
+        <v>11482</v>
+      </c>
+      <c r="F2">
+        <v>9270</v>
+      </c>
+      <c r="G2">
+        <v>7751</v>
+      </c>
+      <c r="H2">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>15385</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>15901</v>
+      </c>
+      <c r="D3">
+        <v>13163</v>
+      </c>
+      <c r="E3">
+        <v>21834</v>
+      </c>
+      <c r="F3">
+        <v>17288</v>
+      </c>
+      <c r="G3">
+        <v>7769</v>
+      </c>
+      <c r="H3">
+        <v>13460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>10177</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>10066</v>
+      </c>
+      <c r="D4">
+        <v>10022</v>
+      </c>
+      <c r="E4">
+        <v>14140</v>
+      </c>
+      <c r="F4">
+        <v>10274</v>
+      </c>
+      <c r="G4">
+        <v>11761</v>
+      </c>
+      <c r="H4">
+        <v>15787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>10335</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>10017</v>
+      </c>
+      <c r="D5">
+        <v>10149</v>
+      </c>
+      <c r="E5">
+        <v>13817</v>
+      </c>
+      <c r="F5">
+        <v>10012</v>
+      </c>
+      <c r="G5">
+        <v>10436</v>
+      </c>
+      <c r="H5">
+        <v>7786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>16553</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>10563</v>
+      </c>
+      <c r="D6">
+        <v>10231</v>
+      </c>
+      <c r="E6">
+        <v>18282</v>
+      </c>
+      <c r="F6">
+        <v>12322</v>
+      </c>
+      <c r="G6">
+        <v>6865</v>
+      </c>
+      <c r="H6">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10081</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>10002</v>
+      </c>
+      <c r="D7">
+        <v>18891</v>
+      </c>
+      <c r="E7">
+        <v>12577</v>
+      </c>
+      <c r="F7">
+        <v>10727</v>
+      </c>
+      <c r="G7">
+        <v>6028</v>
+      </c>
+      <c r="H7">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7602</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>7568</v>
+      </c>
+      <c r="D8">
+        <v>10221</v>
+      </c>
+      <c r="E8">
+        <v>10365</v>
+      </c>
+      <c r="F8">
+        <v>5849</v>
+      </c>
+      <c r="G8">
+        <v>12808</v>
+      </c>
+      <c r="H8">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>8415</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>10061</v>
+      </c>
+      <c r="D9">
+        <v>6141</v>
+      </c>
+      <c r="E9">
+        <v>8678</v>
+      </c>
+      <c r="F9">
+        <v>7646</v>
+      </c>
+      <c r="G9">
+        <v>6527</v>
+      </c>
+      <c r="H9">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10224</v>
+      </c>
+      <c r="C10">
+        <v>10417</v>
+      </c>
+      <c r="D10">
+        <v>10165</v>
+      </c>
+      <c r="E10">
+        <v>10488</v>
+      </c>
+      <c r="F10">
+        <v>10016</v>
+      </c>
+      <c r="G10">
+        <v>11897</v>
+      </c>
+      <c r="H10">
+        <v>9842</v>
       </c>
     </row>
   </sheetData>
